--- a/data/trans_orig/P1423-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7270</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3494</v>
+        <v>2807</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13407</v>
+        <v>14112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02662843808033564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01279626146105112</v>
+        <v>0.01028281313830533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0491062667564028</v>
+        <v>0.05169220483158519</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -765,19 +765,19 @@
         <v>26804</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17139</v>
+        <v>17398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37047</v>
+        <v>38440</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1027621298821574</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06570611475634665</v>
+        <v>0.06669901266448722</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1420325118717209</v>
+        <v>0.1473708148094077</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -786,19 +786,19 @@
         <v>34074</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24003</v>
+        <v>23594</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45880</v>
+        <v>45903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06382735178652324</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04496164715838392</v>
+        <v>0.0441967475517494</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08594141122678889</v>
+        <v>0.08598543461815393</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>265740</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259603</v>
+        <v>258898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269516</v>
+        <v>270203</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9733715619196643</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9508937332435977</v>
+        <v>0.9483077951684148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872037385389489</v>
+        <v>0.9897171868616947</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -836,19 +836,19 @@
         <v>234034</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>223791</v>
+        <v>222398</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>243699</v>
+        <v>243440</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8972378701178426</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8579674881282794</v>
+        <v>0.8526291851905926</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9342938852436534</v>
+        <v>0.9333009873355128</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>483</v>
@@ -857,19 +857,19 @@
         <v>499774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>487968</v>
+        <v>487945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>509845</v>
+        <v>510254</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9361726482134768</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9140585887732111</v>
+        <v>0.914014565381846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9550383528416161</v>
+        <v>0.9558032524482505</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12058</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6595</v>
+        <v>6176</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20433</v>
+        <v>20429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02445445397288669</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01337586427867104</v>
+        <v>0.01252593432928829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04144046117298528</v>
+        <v>0.04143244250158312</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -982,19 +982,19 @@
         <v>45501</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35735</v>
+        <v>33906</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60907</v>
+        <v>59391</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09028980739094231</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07091043393240007</v>
+        <v>0.06728040554510478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.120858541195777</v>
+        <v>0.1178511670022285</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -1003,19 +1003,19 @@
         <v>57559</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43729</v>
+        <v>45045</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74198</v>
+        <v>74219</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05773114422776103</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04385990450354806</v>
+        <v>0.04517978944741611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07441939741801055</v>
+        <v>0.07444043729841336</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>481017</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>472642</v>
+        <v>472646</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>486480</v>
+        <v>486899</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9755455460271133</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9585595388270145</v>
+        <v>0.958567557498416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9866241357213279</v>
+        <v>0.9874740656707116</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>454</v>
@@ -1053,19 +1053,19 @@
         <v>458448</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>443042</v>
+        <v>444558</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>468214</v>
+        <v>470043</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9097101926090577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.879141458804224</v>
+        <v>0.8821488329977715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9290895660676002</v>
+        <v>0.9327195944548953</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>907</v>
@@ -1074,19 +1074,19 @@
         <v>939465</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>922826</v>
+        <v>922805</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>953295</v>
+        <v>951979</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.942268855772239</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9255806025819894</v>
+        <v>0.9255595627015867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9561400954964528</v>
+        <v>0.9548202105525839</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10377</v>
+        <v>10391</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01155868454903048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002948696802878843</v>
+        <v>0.002942026202529834</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03254428211542777</v>
+        <v>0.03258951404070421</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1199,19 +1199,19 @@
         <v>22107</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14750</v>
+        <v>14808</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31696</v>
+        <v>33706</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06591053123867656</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04397698959407958</v>
+        <v>0.04414735277277589</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09449910544131933</v>
+        <v>0.1004918026897965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1220,19 +1220,19 @@
         <v>25793</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17090</v>
+        <v>16772</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36333</v>
+        <v>37080</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0394227139048888</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02612142120032908</v>
+        <v>0.02563547750953071</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05553302101685656</v>
+        <v>0.05667429700475148</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>315161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308469</v>
+        <v>308455</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317906</v>
+        <v>317908</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9884413154509695</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9674557178845723</v>
+        <v>0.9674104859592962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970513031971211</v>
+        <v>0.9970579737974702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>313</v>
@@ -1270,19 +1270,19 @@
         <v>313305</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>303716</v>
+        <v>301706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>320662</v>
+        <v>320604</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9340894687613235</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9055008945586807</v>
+        <v>0.8995081973102034</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9560230104059204</v>
+        <v>0.9558526472272241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>620</v>
@@ -1291,19 +1291,19 @@
         <v>628465</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617925</v>
+        <v>617178</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637168</v>
+        <v>637486</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9605772860951112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9444669789831435</v>
+        <v>0.9433257029952489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.973878578799671</v>
+        <v>0.9743645224904693</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>7627</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3336</v>
+        <v>3139</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16367</v>
+        <v>14726</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0212636743235141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009302224669328375</v>
+        <v>0.008752811660842354</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0456312060231103</v>
+        <v>0.04105606757114968</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1416,19 +1416,19 @@
         <v>16692</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10775</v>
+        <v>10035</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25939</v>
+        <v>26178</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04493658140086014</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02900805098316334</v>
+        <v>0.02701425103907326</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06983006119328614</v>
+        <v>0.07047420925965298</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1437,19 +1437,19 @@
         <v>24319</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15686</v>
+        <v>16291</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34448</v>
+        <v>34956</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03330738947967122</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0214841733847585</v>
+        <v>0.02231235160236002</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04718090161985658</v>
+        <v>0.04787718211606024</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>351044</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342304</v>
+        <v>343945</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355335</v>
+        <v>355532</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9787363256764859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9543687939768901</v>
+        <v>0.9589439324288503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9906977753306716</v>
+        <v>0.9912471883391578</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -1487,19 +1487,19 @@
         <v>354764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>345517</v>
+        <v>345278</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>360681</v>
+        <v>361421</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9550634185991399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9301699388067136</v>
+        <v>0.9295257907403474</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9709919490168366</v>
+        <v>0.9729857489609269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>721</v>
@@ -1508,19 +1508,19 @@
         <v>705808</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>695679</v>
+        <v>695171</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>714441</v>
+        <v>713836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9666926105203287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9528190983801431</v>
+        <v>0.9521228178839397</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9785158266152411</v>
+        <v>0.9776876483976399</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>7073</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3430</v>
+        <v>3062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13773</v>
+        <v>13974</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03479004507178176</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01686972997060602</v>
+        <v>0.0150626751686889</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06774695256198228</v>
+        <v>0.06873238211460343</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1633,19 +1633,19 @@
         <v>21378</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14035</v>
+        <v>13287</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32108</v>
+        <v>31839</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.102945224201936</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06758569678468623</v>
+        <v>0.06398148409508453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1546132353331799</v>
+        <v>0.1533166588535005</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1654,19 +1654,19 @@
         <v>28452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19398</v>
+        <v>20116</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39396</v>
+        <v>39589</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06922915624975096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0471993384951845</v>
+        <v>0.04894703926107711</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09586022534239161</v>
+        <v>0.09632982291353208</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>196235</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189535</v>
+        <v>189334</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199878</v>
+        <v>200246</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9652099549282183</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9322530474380174</v>
+        <v>0.9312676178853965</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.983130270029394</v>
+        <v>0.9849373248313106</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -1704,19 +1704,19 @@
         <v>186290</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175560</v>
+        <v>175829</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>193633</v>
+        <v>194381</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.897054775798064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8453867646668203</v>
+        <v>0.8466833411464997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9324143032153139</v>
+        <v>0.9360185159049156</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>376</v>
@@ -1725,19 +1725,19 @@
         <v>382524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371580</v>
+        <v>371387</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>391578</v>
+        <v>390860</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9307708437502491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9041397746576084</v>
+        <v>0.9036701770864684</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9528006615048153</v>
+        <v>0.951052960738923</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6990</v>
+        <v>6980</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007046680582133653</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02581104381615332</v>
+        <v>0.02577442150829924</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1850,19 +1850,19 @@
         <v>15582</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8352</v>
+        <v>9485</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24037</v>
+        <v>25636</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05602274395761447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03002705349602815</v>
+        <v>0.03410266926686664</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08641812714613716</v>
+        <v>0.09216851997950443</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1871,19 +1871,19 @@
         <v>17491</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10668</v>
+        <v>10782</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27718</v>
+        <v>26888</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03186182585325902</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01943302865982016</v>
+        <v>0.01964123088651391</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05049242396547044</v>
+        <v>0.0489795656835026</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>268903</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263821</v>
+        <v>263831</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1909,7 +1909,7 @@
         <v>0.9929533194178664</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9741889561838464</v>
+        <v>0.9742255784916999</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>262562</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254107</v>
+        <v>252508</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>269792</v>
+        <v>268659</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9439772560423855</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9135818728538628</v>
+        <v>0.9078314800204953</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9699729465039718</v>
+        <v>0.9658973307331333</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>519</v>
@@ -1942,19 +1942,19 @@
         <v>531464</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>521237</v>
+        <v>522067</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>538287</v>
+        <v>538173</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.968138174146741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9495075760345297</v>
+        <v>0.9510204343164975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9805669713401799</v>
+        <v>0.9803587691134862</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>18294</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11723</v>
+        <v>11543</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27579</v>
+        <v>27010</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02974462802747286</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01906020465754279</v>
+        <v>0.01876813494645031</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04484163137447707</v>
+        <v>0.04391751016468566</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -2067,19 +2067,19 @@
         <v>51139</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39460</v>
+        <v>40506</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66706</v>
+        <v>65989</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08012692620052952</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06182770261704094</v>
+        <v>0.06346694060614856</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.104519465735158</v>
+        <v>0.1033958657070366</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -2088,19 +2088,19 @@
         <v>69432</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54284</v>
+        <v>55626</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88896</v>
+        <v>87973</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0554019537288186</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04331503849733356</v>
+        <v>0.04438582124678766</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07093230257344096</v>
+        <v>0.070196361430142</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>596733</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>587448</v>
+        <v>588017</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>603304</v>
+        <v>603484</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9702553719725271</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9551583686255231</v>
+        <v>0.9560824898353144</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9809397953424572</v>
+        <v>0.9812318650535498</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>570</v>
@@ -2138,19 +2138,19 @@
         <v>587080</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>571513</v>
+        <v>572230</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>598759</v>
+        <v>597713</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9198730737994705</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8954805342648421</v>
+        <v>0.8966041342929635</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.938172297382959</v>
+        <v>0.9365330593938515</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1148</v>
@@ -2159,19 +2159,19 @@
         <v>1183814</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1164350</v>
+        <v>1165273</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1198962</v>
+        <v>1197620</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9445980462711814</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9290676974265591</v>
+        <v>0.9298036385698584</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9566849615026666</v>
+        <v>0.9556141787532123</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>43459</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33071</v>
+        <v>32830</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59722</v>
+        <v>58820</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0584284803507327</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0444626252096738</v>
+        <v>0.04413855081695685</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08029372396179726</v>
+        <v>0.07908062848089541</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -2284,19 +2284,19 @@
         <v>57918</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44393</v>
+        <v>43421</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75472</v>
+        <v>74018</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07392051458899147</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05665950382360557</v>
+        <v>0.05541883083950135</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09632519307759976</v>
+        <v>0.09446910589339637</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>96</v>
@@ -2305,19 +2305,19 @@
         <v>101376</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83442</v>
+        <v>83068</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>122063</v>
+        <v>122956</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06637592435042308</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.054633348383087</v>
+        <v>0.05438841167285997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07992030136277727</v>
+        <v>0.080504951308395</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>700336</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>684073</v>
+        <v>684975</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>710724</v>
+        <v>710965</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9415715196492673</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9197062760382029</v>
+        <v>0.9209193715191051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9555373747903264</v>
+        <v>0.9558614491830435</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>693</v>
@@ -2355,19 +2355,19 @@
         <v>725593</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>708039</v>
+        <v>709493</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>739118</v>
+        <v>740090</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9260794854110085</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9036748069224001</v>
+        <v>0.9055308941066034</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9433404961763943</v>
+        <v>0.9445811691604986</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1385</v>
@@ -2376,19 +2376,19 @@
         <v>1425930</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1405243</v>
+        <v>1404350</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1443864</v>
+        <v>1444238</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9336240756495769</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9200796986372225</v>
+        <v>0.9194950486916053</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9453666516169129</v>
+        <v>0.9456115883271402</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>101374</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>83286</v>
+        <v>82770</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>120883</v>
+        <v>123551</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0309392511740386</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02541883440745864</v>
+        <v>0.02526144435520953</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03689358837622989</v>
+        <v>0.03770762250023565</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>248</v>
@@ -2501,19 +2501,19 @@
         <v>257122</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>225895</v>
+        <v>226724</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>288825</v>
+        <v>291879</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07608960321522913</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06684867282896477</v>
+        <v>0.06709415924874697</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0854714691691327</v>
+        <v>0.08637525400442105</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>352</v>
@@ -2522,19 +2522,19 @@
         <v>358496</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>321106</v>
+        <v>321667</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>396371</v>
+        <v>394230</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0538626126121917</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04824503621807337</v>
+        <v>0.04832922847621215</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05955317873674727</v>
+        <v>0.05923153005602007</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3175169</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3155660</v>
+        <v>3152992</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3193257</v>
+        <v>3193773</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9690607488259614</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9631064116237695</v>
+        <v>0.9622923774997643</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9745811655925414</v>
+        <v>0.9747385556447903</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3049</v>
@@ -2572,19 +2572,19 @@
         <v>3122075</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3090372</v>
+        <v>3087318</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3153302</v>
+        <v>3152473</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9239103967847708</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.914528530830867</v>
+        <v>0.9136247459955792</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9331513271710346</v>
+        <v>0.932905840751253</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6159</v>
@@ -2593,19 +2593,19 @@
         <v>6297245</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6259370</v>
+        <v>6261511</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6334635</v>
+        <v>6334074</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9461373873878083</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.940446821263253</v>
+        <v>0.9407684699439801</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9517549637819267</v>
+        <v>0.9516707715237879</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>14653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7845</v>
+        <v>8331</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22575</v>
+        <v>22976</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0497144069869031</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0266161177510812</v>
+        <v>0.02826604266063603</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07659219178695953</v>
+        <v>0.0779545691668205</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -2962,19 +2962,19 @@
         <v>35539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25602</v>
+        <v>24464</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48743</v>
+        <v>48130</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1237232104580289</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0891306448701106</v>
+        <v>0.08516838100882418</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1696899052904568</v>
+        <v>0.1675566774690174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -2983,19 +2983,19 @@
         <v>50192</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36856</v>
+        <v>38706</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63896</v>
+        <v>65886</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0862423771168566</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06332772928741917</v>
+        <v>0.06650648739403535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1097901700226453</v>
+        <v>0.1132100318119521</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>280085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272163</v>
+        <v>271762</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286893</v>
+        <v>286407</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9502855930130969</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9234078082130405</v>
+        <v>0.9220454308331795</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9733838822489188</v>
+        <v>0.9717339573393641</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>223</v>
@@ -3033,19 +3033,19 @@
         <v>251706</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>238502</v>
+        <v>239115</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261643</v>
+        <v>262781</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8762767895419711</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8303100947095432</v>
+        <v>0.8324433225309824</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9108693551298892</v>
+        <v>0.9148316189911758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>490</v>
@@ -3054,19 +3054,19 @@
         <v>531791</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518087</v>
+        <v>516097</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>545127</v>
+        <v>543277</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9137576228831434</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8902098299773548</v>
+        <v>0.8867899681880477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9366722707125809</v>
+        <v>0.9334935126059647</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>18962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10966</v>
+        <v>10038</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31819</v>
+        <v>31028</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03751020941911866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02169313586951453</v>
+        <v>0.01985569990707735</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0629428345910075</v>
+        <v>0.06137704623609028</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -3179,19 +3179,19 @@
         <v>65013</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49559</v>
+        <v>51433</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81459</v>
+        <v>82855</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1241262279550256</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09462091039971475</v>
+        <v>0.09819782919972539</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1555261326311436</v>
+        <v>0.1581910963678804</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -3200,19 +3200,19 @@
         <v>83975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65949</v>
+        <v>66064</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105149</v>
+        <v>103873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08158558143167877</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06407197764841799</v>
+        <v>0.06418417575268107</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1021568885529456</v>
+        <v>0.1009168494530149</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>486565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473708</v>
+        <v>474499</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>494561</v>
+        <v>495489</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9624897905808814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9370571654089916</v>
+        <v>0.9386229537639095</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9783068641304853</v>
+        <v>0.9801443000929224</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>421</v>
@@ -3250,19 +3250,19 @@
         <v>458752</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>442306</v>
+        <v>440910</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>474206</v>
+        <v>472332</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8758737720449744</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.844473867368858</v>
+        <v>0.8418089036321197</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9053790896002853</v>
+        <v>0.9018021708002747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>880</v>
@@ -3271,19 +3271,19 @@
         <v>945317</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>924143</v>
+        <v>925419</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>963343</v>
+        <v>963228</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9184144185683213</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8978431114470543</v>
+        <v>0.8990831505469852</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.935928022351582</v>
+        <v>0.935815824247319</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>16841</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9874</v>
+        <v>9914</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26233</v>
+        <v>26827</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05197094363776217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03047035999626909</v>
+        <v>0.0305954372801311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08095582296651353</v>
+        <v>0.08278860079140289</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -3396,19 +3396,19 @@
         <v>38854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27306</v>
+        <v>28822</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53131</v>
+        <v>52812</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1139348785274185</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08007103597825656</v>
+        <v>0.08451597665009253</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1557993214475935</v>
+        <v>0.154864851686752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3417,19 +3417,19 @@
         <v>55695</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43109</v>
+        <v>42310</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73314</v>
+        <v>72027</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08374364183267481</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0648190823316416</v>
+        <v>0.0636172370642915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1102356344896128</v>
+        <v>0.1083009212229181</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>307205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297813</v>
+        <v>297219</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314172</v>
+        <v>314132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9480290563622379</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.919044177033486</v>
+        <v>0.9172113992085971</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9695296400037308</v>
+        <v>0.9694045627198689</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>280</v>
@@ -3467,19 +3467,19 @@
         <v>302166</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>287889</v>
+        <v>288208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>313714</v>
+        <v>312198</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8860651214725814</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8442006785524065</v>
+        <v>0.845135148313248</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9199289640217435</v>
+        <v>0.9154840233499075</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>583</v>
@@ -3488,19 +3488,19 @@
         <v>609371</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>591752</v>
+        <v>593039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>621957</v>
+        <v>622756</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9162563581673252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8897643655103874</v>
+        <v>0.891699078777082</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9351809176683584</v>
+        <v>0.9363827629357085</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>9477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4135</v>
+        <v>4225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18946</v>
+        <v>18416</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02534030041562419</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01105625253698987</v>
+        <v>0.01129602916580403</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05066030713158316</v>
+        <v>0.04924399777420253</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -3613,19 +3613,19 @@
         <v>52486</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40681</v>
+        <v>40997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68216</v>
+        <v>67135</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1349426285957932</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1045908793606848</v>
+        <v>0.1054038624450844</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1753833369068836</v>
+        <v>0.172606058915508</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -3634,19 +3634,19 @@
         <v>61963</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47659</v>
+        <v>47634</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77629</v>
+        <v>79656</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08121667292199171</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.062468150826841</v>
+        <v>0.06243593451031958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1017512018753321</v>
+        <v>0.1044072960254619</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>364505</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>355036</v>
+        <v>355566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369847</v>
+        <v>369757</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9746596995843758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9493396928684162</v>
+        <v>0.9507560022257974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9889437474630101</v>
+        <v>0.9887039708341958</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -3684,19 +3684,19 @@
         <v>336465</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>320735</v>
+        <v>321816</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>348270</v>
+        <v>347954</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8650573714042068</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.824616663093116</v>
+        <v>0.8273939410844919</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8954091206393151</v>
+        <v>0.8945961375549155</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>656</v>
@@ -3705,19 +3705,19 @@
         <v>700970</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>685304</v>
+        <v>683277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>715274</v>
+        <v>715299</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9187833270780082</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8982487981246678</v>
+        <v>0.8955927039745385</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9375318491731591</v>
+        <v>0.9375640654896805</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>10546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5382</v>
+        <v>5161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19132</v>
+        <v>18811</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0496027698258498</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02531346837484217</v>
+        <v>0.02427511584325245</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08998506172113739</v>
+        <v>0.08847337330675854</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -3830,19 +3830,19 @@
         <v>44571</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33544</v>
+        <v>32522</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57317</v>
+        <v>57478</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2029724459366263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.152758583264987</v>
+        <v>0.1481009711786223</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2610174545865057</v>
+        <v>0.2617490102219158</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -3851,19 +3851,19 @@
         <v>55117</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42538</v>
+        <v>42145</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69935</v>
+        <v>70856</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1275247878296022</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09841944376333557</v>
+        <v>0.0975096107103102</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.161808663979814</v>
+        <v>0.1639397502276216</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>202072</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193486</v>
+        <v>193807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207236</v>
+        <v>207457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9503972301741502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9100149382788625</v>
+        <v>0.911526626693241</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9746865316251578</v>
+        <v>0.9757248841567475</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>169</v>
@@ -3901,19 +3901,19 @@
         <v>175020</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>162274</v>
+        <v>162113</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>186047</v>
+        <v>187069</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7970275540633737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7389825454134944</v>
+        <v>0.7382509897780842</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8472414167350131</v>
+        <v>0.8518990288213777</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>355</v>
@@ -3922,19 +3922,19 @@
         <v>377092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>362274</v>
+        <v>361353</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>389671</v>
+        <v>390064</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8724752121703978</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8381913360201857</v>
+        <v>0.8360602497723785</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.901580556236664</v>
+        <v>0.9024903892896898</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>14149</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8024</v>
+        <v>7936</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23185</v>
+        <v>24447</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05164100131420808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0292864003062124</v>
+        <v>0.02896486049788979</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08462241042951149</v>
+        <v>0.08922865672973541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -4047,19 +4047,19 @@
         <v>36752</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25536</v>
+        <v>26371</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49096</v>
+        <v>49221</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1321563648121313</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09182472732699767</v>
+        <v>0.09482820774934513</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1765439202933219</v>
+        <v>0.1769939268682683</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -4068,19 +4068,19 @@
         <v>50901</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37798</v>
+        <v>37153</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65638</v>
+        <v>66229</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09219873214166228</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06846555270396711</v>
+        <v>0.06729617849936213</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.118893119289768</v>
+        <v>0.119962720868562</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>259832</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250796</v>
+        <v>249534</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265957</v>
+        <v>266045</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9483589986857919</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9153775895704883</v>
+        <v>0.9107713432702645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9707135996937876</v>
+        <v>0.9710351395021102</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>233</v>
@@ -4118,19 +4118,19 @@
         <v>241344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229000</v>
+        <v>228875</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252560</v>
+        <v>251725</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8678436351878688</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8234560797066781</v>
+        <v>0.8230060731317318</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9081752726730024</v>
+        <v>0.9051717922506549</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>481</v>
@@ -4139,19 +4139,19 @@
         <v>501176</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>486439</v>
+        <v>485848</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>514279</v>
+        <v>514924</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9078012678583377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.881106880710232</v>
+        <v>0.8800372791314378</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.931534447296033</v>
+        <v>0.9327038215006375</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>34451</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23703</v>
+        <v>23299</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46645</v>
+        <v>48307</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05197881666706177</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03576248232327463</v>
+        <v>0.03515301170642433</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07037714994057495</v>
+        <v>0.07288465932687167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -4264,19 +4264,19 @@
         <v>62829</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47320</v>
+        <v>48010</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79614</v>
+        <v>80422</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09055021433887517</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06819856768467938</v>
+        <v>0.06919390824195878</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1147415003578342</v>
+        <v>0.1159069357070655</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -4285,19 +4285,19 @@
         <v>97279</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77727</v>
+        <v>78376</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>116996</v>
+        <v>117184</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07170612747573392</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0572936139826698</v>
+        <v>0.05777206278879329</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08623974730761368</v>
+        <v>0.08637802417653193</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>628337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>616143</v>
+        <v>614481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>639085</v>
+        <v>639489</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9480211833329383</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9296228500594252</v>
+        <v>0.9271153406731283</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9642375176767256</v>
+        <v>0.9648469882935756</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>577</v>
@@ -4335,19 +4335,19 @@
         <v>631024</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>614239</v>
+        <v>613431</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>646533</v>
+        <v>645843</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9094497856611248</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8852584996421657</v>
+        <v>0.8840930642929345</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9318014323153205</v>
+        <v>0.9308060917580412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1163</v>
@@ -4356,19 +4356,19 @@
         <v>1259362</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1239645</v>
+        <v>1239457</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1278914</v>
+        <v>1278265</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9282938725242661</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9137602526923863</v>
+        <v>0.9136219758234677</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9427063860173299</v>
+        <v>0.9422279372112066</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>23601</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14890</v>
+        <v>15632</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36280</v>
+        <v>36887</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0302928828496154</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01911225668423933</v>
+        <v>0.02006443815420781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04656611267288812</v>
+        <v>0.04734605678993161</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -4481,19 +4481,19 @@
         <v>69560</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53950</v>
+        <v>55166</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87217</v>
+        <v>87247</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08456316510299117</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06558659602094724</v>
+        <v>0.06706487730440018</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1060293331937675</v>
+        <v>0.1060656297787548</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -4502,19 +4502,19 @@
         <v>93161</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74760</v>
+        <v>77254</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>111171</v>
+        <v>113909</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05816463858235415</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04667629541101771</v>
+        <v>0.04823322743790925</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06940941212040516</v>
+        <v>0.07111853371527267</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>755497</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>742818</v>
+        <v>742211</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764208</v>
+        <v>763466</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9697071171503846</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9534338873271117</v>
+        <v>0.9526539432100672</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9808877433157606</v>
+        <v>0.9799355618457921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>691</v>
@@ -4552,19 +4552,19 @@
         <v>753018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>735361</v>
+        <v>735331</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>768628</v>
+        <v>767412</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9154368348970089</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8939706668062325</v>
+        <v>0.8939343702212452</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9344134039790528</v>
+        <v>0.9329351226955998</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1387</v>
@@ -4573,19 +4573,19 @@
         <v>1508515</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1490505</v>
+        <v>1487767</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1526916</v>
+        <v>1524422</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9418353614176459</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9305905878795946</v>
+        <v>0.9288814662847272</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9533237045889822</v>
+        <v>0.9517667725620905</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>142680</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>119879</v>
+        <v>119740</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>170209</v>
+        <v>171737</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04163680623244728</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03498303961878504</v>
+        <v>0.0349425746676977</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04967038407956309</v>
+        <v>0.05011630025005198</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>382</v>
@@ -4698,19 +4698,19 @@
         <v>405603</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>369157</v>
+        <v>366961</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>446857</v>
+        <v>444689</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1140906099590445</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1038388704560248</v>
+        <v>0.1032210723958697</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1256947527940435</v>
+        <v>0.1250849597637257</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>510</v>
@@ -4719,19 +4719,19 @@
         <v>548283</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>503280</v>
+        <v>503099</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>593918</v>
+        <v>595718</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07852952054940991</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07208381372805435</v>
+        <v>0.07205781917207388</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0850656742327586</v>
+        <v>0.08532344135043349</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3284099</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3256570</v>
+        <v>3255042</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3306900</v>
+        <v>3307039</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9583631937675527</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.950329615920437</v>
+        <v>0.9498836997499482</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9650169603812151</v>
+        <v>0.9650574253323024</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2914</v>
@@ -4769,19 +4769,19 @@
         <v>3149495</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3108241</v>
+        <v>3110409</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3185941</v>
+        <v>3188137</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8859093900409555</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8743052472059568</v>
+        <v>0.8749150402362742</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8961611295439753</v>
+        <v>0.8967789276041302</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5995</v>
@@ -4790,19 +4790,19 @@
         <v>6433594</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6387959</v>
+        <v>6386159</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6478597</v>
+        <v>6478778</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9214704794505901</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9149343257672414</v>
+        <v>0.9146765586495664</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9279161862719455</v>
+        <v>0.9279421808279261</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>14496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8244</v>
+        <v>8257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24538</v>
+        <v>24171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04934621672163773</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02806332152990278</v>
+        <v>0.02810754158456622</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08353181710084111</v>
+        <v>0.08228259644005415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -5159,19 +5159,19 @@
         <v>41680</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30176</v>
+        <v>30423</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55266</v>
+        <v>56440</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1443709668337113</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1045225285058251</v>
+        <v>0.1053780874169604</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.191428302230003</v>
+        <v>0.1954944572173613</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -5180,19 +5180,19 @@
         <v>56176</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41565</v>
+        <v>42686</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71375</v>
+        <v>70666</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09644600380823898</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07136063527348017</v>
+        <v>0.07328532265211914</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.122540567525304</v>
+        <v>0.1213219701687934</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>279265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269223</v>
+        <v>269590</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285517</v>
+        <v>285504</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9506537832783623</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9164681828991593</v>
+        <v>0.917717403559946</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9719366784700973</v>
+        <v>0.9718924584154339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -5230,19 +5230,19 @@
         <v>247023</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>233437</v>
+        <v>232263</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>258527</v>
+        <v>258280</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8556290331662887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.808571697769997</v>
+        <v>0.8045055427826387</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.895477471494175</v>
+        <v>0.8946219125830395</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>491</v>
@@ -5251,19 +5251,19 @@
         <v>526288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>511089</v>
+        <v>511798</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>540899</v>
+        <v>539778</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.903553996191761</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.877459432474696</v>
+        <v>0.8786780298312067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.92863936472652</v>
+        <v>0.9267146773478809</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>15629</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9190</v>
+        <v>9142</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25054</v>
+        <v>25017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03109722037814788</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01828547728556065</v>
+        <v>0.01818937114856203</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04985148534331994</v>
+        <v>0.04977669391177175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -5376,19 +5376,19 @@
         <v>50789</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37822</v>
+        <v>38496</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65818</v>
+        <v>65978</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09709525909288284</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07230621162120579</v>
+        <v>0.07359431971527797</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1258260027393854</v>
+        <v>0.1261322668718095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -5397,19 +5397,19 @@
         <v>66418</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52356</v>
+        <v>52231</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83391</v>
+        <v>84289</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06475607377292303</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05104641492361264</v>
+        <v>0.05092397095681874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08130458617131552</v>
+        <v>0.08218002758065839</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>486946</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477521</v>
+        <v>477558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493385</v>
+        <v>493433</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9689027796218521</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9501485146566805</v>
+        <v>0.9502233060882284</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9817145227144394</v>
+        <v>0.9818106288514383</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>438</v>
@@ -5447,19 +5447,19 @@
         <v>472295</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>457266</v>
+        <v>457106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485262</v>
+        <v>484588</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9029047409071171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8741739972606142</v>
+        <v>0.8738677331281904</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9276937883787939</v>
+        <v>0.926405680284722</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>898</v>
@@ -5468,19 +5468,19 @@
         <v>959241</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>942268</v>
+        <v>941370</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>973303</v>
+        <v>973428</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.935243926227077</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9186954138286844</v>
+        <v>0.9178199724193418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9489535850763869</v>
+        <v>0.9490760290431813</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>4152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>995</v>
+        <v>1244</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10440</v>
+        <v>10470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01303288850897306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003123140653708415</v>
+        <v>0.003905289956443372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03277086525869032</v>
+        <v>0.0328668620180099</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -5593,19 +5593,19 @@
         <v>26424</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17894</v>
+        <v>17658</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38858</v>
+        <v>37604</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07857036121720387</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05320724754982691</v>
+        <v>0.05250676334391417</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1155436036140384</v>
+        <v>0.1118144469218208</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -5614,19 +5614,19 @@
         <v>30576</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21170</v>
+        <v>21250</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43027</v>
+        <v>43079</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04668950345072648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03232695447195944</v>
+        <v>0.03244956476876422</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06570197499900005</v>
+        <v>0.06578202481065129</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>314413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308125</v>
+        <v>308095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317570</v>
+        <v>317321</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9869671114910269</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9672291347413108</v>
+        <v>0.9671331379819903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9968768593462916</v>
+        <v>0.9960947100435567</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>306</v>
@@ -5664,19 +5664,19 @@
         <v>309885</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>297451</v>
+        <v>298705</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>318415</v>
+        <v>318651</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9214296387827962</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8844563963859616</v>
+        <v>0.888185553078179</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.946792752450173</v>
+        <v>0.9474932366560858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>637</v>
@@ -5685,19 +5685,19 @@
         <v>624298</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>611847</v>
+        <v>611795</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>633704</v>
+        <v>633624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9533104965492735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.934298025001</v>
+        <v>0.9342179751893487</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9676730455280407</v>
+        <v>0.9675504352312359</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>10711</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5369</v>
+        <v>5356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18957</v>
+        <v>19179</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02895152395903232</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01451296455598866</v>
+        <v>0.0144763601092366</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05124106567719693</v>
+        <v>0.05184046217549824</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5810,19 +5810,19 @@
         <v>25836</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16298</v>
+        <v>16726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36863</v>
+        <v>37233</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0667098455634583</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04208392181002589</v>
+        <v>0.04318755831969252</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09518261885691597</v>
+        <v>0.09613882864425227</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -5831,19 +5831,19 @@
         <v>36547</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26014</v>
+        <v>25918</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49565</v>
+        <v>51495</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04826247021131137</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03435400927886999</v>
+        <v>0.03422684018859308</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06545387139399371</v>
+        <v>0.06800250680451196</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>359253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351007</v>
+        <v>350785</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364595</v>
+        <v>364608</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9710484760409677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9487589343228029</v>
+        <v>0.9481595378245018</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9854870354440114</v>
+        <v>0.9855236398907634</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -5881,19 +5881,19 @@
         <v>361447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350420</v>
+        <v>350050</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370985</v>
+        <v>370557</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9332901544365417</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.904817381143084</v>
+        <v>0.9038611713557479</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9579160781899742</v>
+        <v>0.9568124416803074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>678</v>
@@ -5902,19 +5902,19 @@
         <v>720700</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>707682</v>
+        <v>705752</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>731233</v>
+        <v>731329</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9517375297886886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9345461286060063</v>
+        <v>0.931997493195489</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9656459907211297</v>
+        <v>0.9657731598114072</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>11606</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5967</v>
+        <v>6526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19234</v>
+        <v>19914</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05494842328444897</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02824958751001163</v>
+        <v>0.03089687570434686</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09106003424870743</v>
+        <v>0.09428048880278186</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -6027,19 +6027,19 @@
         <v>27885</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19099</v>
+        <v>18910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38158</v>
+        <v>39147</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1275686314119807</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08737410156209548</v>
+        <v>0.08650843801360986</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1745652089468633</v>
+        <v>0.1790903308687879</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -6048,19 +6048,19 @@
         <v>39491</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27526</v>
+        <v>29154</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50474</v>
+        <v>52873</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09188080587918979</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0640432320347801</v>
+        <v>0.06782912386764577</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.117434644763327</v>
+        <v>0.123015856332311</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>199615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191987</v>
+        <v>191307</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205254</v>
+        <v>204695</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9450515767155511</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9089399657512927</v>
+        <v>0.9057195111972182</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9717504124899885</v>
+        <v>0.9691031242956533</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>195</v>
@@ -6098,19 +6098,19 @@
         <v>190702</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180429</v>
+        <v>179440</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199488</v>
+        <v>199677</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8724313685880193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8254347910531368</v>
+        <v>0.8209096691312121</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9126258984379045</v>
+        <v>0.9134915619863901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -6119,19 +6119,19 @@
         <v>390317</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>379334</v>
+        <v>376935</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>402282</v>
+        <v>400654</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9081191941208102</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.882565355236673</v>
+        <v>0.8769841436676891</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.93595676796522</v>
+        <v>0.9321708761323544</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>6687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2785</v>
+        <v>2794</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13367</v>
+        <v>12714</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02541410343697491</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01058538729179538</v>
+        <v>0.01061716488109093</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05080218048778003</v>
+        <v>0.04832116057542578</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -6244,19 +6244,19 @@
         <v>34629</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24794</v>
+        <v>25287</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46797</v>
+        <v>46456</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1267917648243267</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09078118077723268</v>
+        <v>0.09258594697771942</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1713447120472251</v>
+        <v>0.1700956298800381</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -6265,19 +6265,19 @@
         <v>41316</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29456</v>
+        <v>30311</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54050</v>
+        <v>54729</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07704744544883892</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05493138513156604</v>
+        <v>0.05652508713523184</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1007939272503148</v>
+        <v>0.1020616603556044</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>256436</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249756</v>
+        <v>250409</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260338</v>
+        <v>260329</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9745858965630251</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9491978195122202</v>
+        <v>0.9516788394245741</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9894146127082047</v>
+        <v>0.989382835118909</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>230</v>
@@ -6315,19 +6315,19 @@
         <v>238486</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>226318</v>
+        <v>226659</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248321</v>
+        <v>247828</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8732082351756734</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.828655287952775</v>
+        <v>0.8299043701199619</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9092188192227674</v>
+        <v>0.9074140530222805</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>482</v>
@@ -6336,19 +6336,19 @@
         <v>494922</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>482188</v>
+        <v>481509</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>506782</v>
+        <v>505927</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9229525545511611</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8992060727496851</v>
+        <v>0.8979383396443956</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.945068614868434</v>
+        <v>0.9434749128647681</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>14681</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7242</v>
+        <v>7828</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25681</v>
+        <v>24368</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02236085583876867</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01103081088756458</v>
+        <v>0.01192251428263335</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03911491498221396</v>
+        <v>0.03711510215479786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -6461,19 +6461,19 @@
         <v>58730</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44472</v>
+        <v>45582</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76285</v>
+        <v>77413</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08495650261779655</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0643311762811043</v>
+        <v>0.06593704493872991</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1103514492732991</v>
+        <v>0.1119825622439859</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -6482,19 +6482,19 @@
         <v>73411</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>55807</v>
+        <v>58319</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>93878</v>
+        <v>93700</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05446526726733407</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0414041582472027</v>
+        <v>0.04326778277860057</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06964996750125826</v>
+        <v>0.06951836634041421</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>641877</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>630877</v>
+        <v>632190</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>649316</v>
+        <v>648730</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9776391441612313</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9608850850177861</v>
+        <v>0.9628848978452027</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9889691891124355</v>
+        <v>0.9880774857173668</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>594</v>
@@ -6532,19 +6532,19 @@
         <v>632564</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>615009</v>
+        <v>613881</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>646822</v>
+        <v>645712</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9150434973822035</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8896485507267009</v>
+        <v>0.8880174377560142</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9356688237188957</v>
+        <v>0.9340629550612701</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1161</v>
@@ -6553,19 +6553,19 @@
         <v>1274441</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1253974</v>
+        <v>1254152</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1292045</v>
+        <v>1289533</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.945534732732666</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9303500324987418</v>
+        <v>0.930481633659586</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9585958417527978</v>
+        <v>0.9567322172213996</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>32608</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22748</v>
+        <v>23188</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44559</v>
+        <v>44972</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04188066671380524</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02921697178333268</v>
+        <v>0.02978240764172649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05723119031186021</v>
+        <v>0.05776132784452271</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>80</v>
@@ -6678,19 +6678,19 @@
         <v>95223</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74402</v>
+        <v>76786</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>116742</v>
+        <v>116716</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1152588311596334</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09005661768910672</v>
+        <v>0.09294302306735179</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1413055319238296</v>
+        <v>0.1412737124686244</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>113</v>
@@ -6699,19 +6699,19 @@
         <v>127831</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>106822</v>
+        <v>100760</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>153383</v>
+        <v>148816</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07965765264794779</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06656585432132554</v>
+        <v>0.06278831882282827</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09558060889913089</v>
+        <v>0.09273481222319656</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>745975</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>734024</v>
+        <v>733611</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>755835</v>
+        <v>755395</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9581193332861948</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9427688096881398</v>
+        <v>0.9422386721554772</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9707830282166673</v>
+        <v>0.9702175923582735</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>675</v>
@@ -6749,19 +6749,19 @@
         <v>730944</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>709425</v>
+        <v>709451</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>751765</v>
+        <v>749381</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8847411688403667</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8586944680761702</v>
+        <v>0.8587262875313757</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9099433823108932</v>
+        <v>0.9070569769326484</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1392</v>
@@ -6770,19 +6770,19 @@
         <v>1476919</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1451367</v>
+        <v>1455934</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1497928</v>
+        <v>1503990</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9203423473520522</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9044193911008691</v>
+        <v>0.9072651877768034</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9334341456786744</v>
+        <v>0.9372116811771718</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>110570</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>92862</v>
+        <v>90693</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>132371</v>
+        <v>132579</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03257459977889712</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02735774216036677</v>
+        <v>0.02671871535208471</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03899747741607205</v>
+        <v>0.03905860353258332</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>328</v>
@@ -6895,19 +6895,19 @@
         <v>361195</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>327389</v>
+        <v>327368</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>401245</v>
+        <v>405250</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1019018414644575</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09236435696909912</v>
+        <v>0.09235842159472096</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1132006890924918</v>
+        <v>0.1143308499696666</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>435</v>
@@ -6916,19 +6916,19 @@
         <v>471765</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>429308</v>
+        <v>427540</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>515892</v>
+        <v>516440</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06798851135334058</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06186985075601258</v>
+        <v>0.06161498336982358</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07434786254695809</v>
+        <v>0.07442686018912092</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3283780</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3261979</v>
+        <v>3261771</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3301488</v>
+        <v>3303657</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9674254002211029</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9610025225839278</v>
+        <v>0.9609413964674166</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9726422578396332</v>
+        <v>0.9732812846479153</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3010</v>
@@ -6966,19 +6966,19 @@
         <v>3183347</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3143297</v>
+        <v>3139292</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3217153</v>
+        <v>3217174</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8980981585355425</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8867993109075083</v>
+        <v>0.8856691500303335</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9076356430309009</v>
+        <v>0.907641578405279</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6134</v>
@@ -6987,19 +6987,19 @@
         <v>6467127</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6423000</v>
+        <v>6422452</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6509584</v>
+        <v>6511352</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9320114886466594</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9256521374530418</v>
+        <v>0.9255731398108791</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.938130149243987</v>
+        <v>0.9383850166301765</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>5075</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1878</v>
+        <v>2318</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10671</v>
+        <v>10836</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01591779333454948</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005889093360159772</v>
+        <v>0.007269884223794165</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03346628486311023</v>
+        <v>0.03398531976223526</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -7356,19 +7356,19 @@
         <v>15936</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10694</v>
+        <v>11372</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22206</v>
+        <v>22373</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05042032744818978</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03383490425341619</v>
+        <v>0.03598192198592796</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07025948143520924</v>
+        <v>0.07078565047846726</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -7377,19 +7377,19 @@
         <v>21011</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15143</v>
+        <v>15527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28978</v>
+        <v>29452</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0330933979443352</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02385031323229085</v>
+        <v>0.02445579939127002</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04564177046617523</v>
+        <v>0.04638772034743829</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>313770</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308174</v>
+        <v>308009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>316967</v>
+        <v>316527</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9840822066654505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9665337151368898</v>
+        <v>0.9660146802377644</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.99411090663984</v>
+        <v>0.9927301157762057</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>506</v>
@@ -7427,19 +7427,19 @@
         <v>300125</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>293855</v>
+        <v>293688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305367</v>
+        <v>304689</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9495796725518103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9297405185647906</v>
+        <v>0.9292143495215328</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9661650957465837</v>
+        <v>0.9640180780140719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>831</v>
@@ -7448,19 +7448,19 @@
         <v>613895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>605928</v>
+        <v>605454</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>619763</v>
+        <v>619379</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9669066020556649</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.954358229533825</v>
+        <v>0.9536122796525627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9761496867677092</v>
+        <v>0.9755442006087304</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>30495</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20412</v>
+        <v>19217</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45033</v>
+        <v>43219</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05746705670536967</v>
+        <v>0.05746705670536968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03846718021741971</v>
+        <v>0.03621336589067234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08486342899847565</v>
+        <v>0.08144623855173062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -7573,19 +7573,19 @@
         <v>75192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61460</v>
+        <v>60690</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88834</v>
+        <v>88457</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1375894235138855</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1124624013562436</v>
+        <v>0.1110526572001152</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1625531767886475</v>
+        <v>0.161861973368402</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>131</v>
@@ -7594,19 +7594,19 @@
         <v>105687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86896</v>
+        <v>89487</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122916</v>
+        <v>125435</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09811763647393344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08067281343266722</v>
+        <v>0.08307860130242113</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1141133918066408</v>
+        <v>0.1164516080241784</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>500152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>485614</v>
+        <v>487428</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>510235</v>
+        <v>511430</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9425329432946302</v>
+        <v>0.9425329432946303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9151365710015246</v>
+        <v>0.9185537614482696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9615328197825802</v>
+        <v>0.9637866341093279</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>611</v>
@@ -7644,19 +7644,19 @@
         <v>471302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>457660</v>
+        <v>458037</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485034</v>
+        <v>485804</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8624105764861146</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8374468232113527</v>
+        <v>0.8381380266315978</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8875375986437566</v>
+        <v>0.8889473427998847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>968</v>
@@ -7665,19 +7665,19 @@
         <v>971454</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>954225</v>
+        <v>951706</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>990245</v>
+        <v>987654</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9018823635260665</v>
+        <v>0.9018823635260667</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8858866081933591</v>
+        <v>0.8835483919758217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.919327186567333</v>
+        <v>0.9169213986975789</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>29020</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20812</v>
+        <v>20380</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40020</v>
+        <v>40119</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09183857499490955</v>
+        <v>0.09183857499490956</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0658621974802996</v>
+        <v>0.06449535603340785</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1266492738713903</v>
+        <v>0.1269609743261368</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -7790,19 +7790,19 @@
         <v>54094</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43299</v>
+        <v>44836</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65120</v>
+        <v>64157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1517877386794678</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1214975715037965</v>
+        <v>0.1258094347041194</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1827255049555306</v>
+        <v>0.1800241347743523</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -7811,19 +7811,19 @@
         <v>83115</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68892</v>
+        <v>69559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98254</v>
+        <v>98644</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1236136568376375</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1024599617099741</v>
+        <v>0.1034529453477297</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1461293511204723</v>
+        <v>0.1467103332689918</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>286973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>275973</v>
+        <v>275874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>295181</v>
+        <v>295613</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9081614250050906</v>
+        <v>0.9081614250050903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8733507261286096</v>
+        <v>0.873039025673863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9341378025197002</v>
+        <v>0.9355046439665922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>445</v>
@@ -7861,19 +7861,19 @@
         <v>302287</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>291261</v>
+        <v>292224</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>313082</v>
+        <v>311545</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8482122613205322</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8172744950444694</v>
+        <v>0.8199758652256477</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8785024284962033</v>
+        <v>0.8741905652958805</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>770</v>
@@ -7882,19 +7882,19 @@
         <v>589260</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>574121</v>
+        <v>573731</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>603483</v>
+        <v>602816</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8763863431623626</v>
+        <v>0.8763863431623624</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8538706488795277</v>
+        <v>0.8532896667310083</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8975400382900259</v>
+        <v>0.8965470546522702</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>26633</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17122</v>
+        <v>16846</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39223</v>
+        <v>40474</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07137315141302844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04588436459076405</v>
+        <v>0.04514589746498178</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1051158608041538</v>
+        <v>0.1084664292302778</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -8007,19 +8007,19 @@
         <v>41431</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32195</v>
+        <v>32789</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52770</v>
+        <v>53245</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09818602607217242</v>
+        <v>0.09818602607217243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07629965289268793</v>
+        <v>0.07770696678050215</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1250584997684424</v>
+        <v>0.1261841329802582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -8028,19 +8028,19 @@
         <v>68063</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54840</v>
+        <v>53140</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86068</v>
+        <v>86140</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08560268723819324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06897175015217394</v>
+        <v>0.06683409447123925</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1082473822738157</v>
+        <v>0.1083379697985067</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>346512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>333922</v>
+        <v>332671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356023</v>
+        <v>356299</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9286268485869716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8948841391958464</v>
+        <v>0.8915335707697224</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9541156354092358</v>
+        <v>0.9548541025350186</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>531</v>
@@ -8078,19 +8078,19 @@
         <v>380530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369191</v>
+        <v>368716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>389766</v>
+        <v>389172</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9018139739278277</v>
+        <v>0.9018139739278278</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8749415002315575</v>
+        <v>0.8738158670197419</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9237003471073121</v>
+        <v>0.9222930332194976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>798</v>
@@ -8099,19 +8099,19 @@
         <v>727044</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>709039</v>
+        <v>708967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>740267</v>
+        <v>741967</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9143973127618067</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8917526177261844</v>
+        <v>0.8916620302014934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9310282498478263</v>
+        <v>0.9331659055287609</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>3137</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1194</v>
+        <v>1132</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7403</v>
+        <v>7140</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01525285971940968</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005804305390995565</v>
+        <v>0.005501674233899364</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03599688547885028</v>
+        <v>0.03471645383607185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -8224,19 +8224,19 @@
         <v>17019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12374</v>
+        <v>11879</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25190</v>
+        <v>24365</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07434513084945787</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05405641537317159</v>
+        <v>0.05189159328765508</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1100407432859311</v>
+        <v>0.1064364307181629</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -8245,19 +8245,19 @@
         <v>20156</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14610</v>
+        <v>14719</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28583</v>
+        <v>28151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04637989828930852</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03361791232330073</v>
+        <v>0.03387015262348382</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0657713190962743</v>
+        <v>0.06477785860690356</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>202528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198262</v>
+        <v>198525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204471</v>
+        <v>204533</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9847471402805903</v>
+        <v>0.9847471402805904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9640031145211497</v>
+        <v>0.9652835461639281</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.994195694609004</v>
+        <v>0.9944983257661005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>458</v>
@@ -8295,19 +8295,19 @@
         <v>211899</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203728</v>
+        <v>204553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216544</v>
+        <v>217039</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9256548691505422</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8899592567140687</v>
+        <v>0.8935635692818367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9459435846268285</v>
+        <v>0.9481084067123449</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>732</v>
@@ -8316,19 +8316,19 @@
         <v>414426</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>405999</v>
+        <v>406431</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>419972</v>
+        <v>419863</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9536201017106913</v>
+        <v>0.9536201017106916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9342286809037258</v>
+        <v>0.9352221413930963</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9663820876766995</v>
+        <v>0.9661298473765163</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>27413</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18939</v>
+        <v>20017</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35830</v>
+        <v>37734</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.101263742537745</v>
+        <v>0.1012637425377451</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06995948629089084</v>
+        <v>0.07394475968520277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1323589677194143</v>
+        <v>0.1393892034389776</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -8441,19 +8441,19 @@
         <v>39311</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31113</v>
+        <v>31040</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48382</v>
+        <v>48685</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1490468559429659</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1179631982981355</v>
+        <v>0.1176866519357289</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1834390175230915</v>
+        <v>0.1845895150136592</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -8462,19 +8462,19 @@
         <v>66724</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>54659</v>
+        <v>55992</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78836</v>
+        <v>80095</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1248443181771307</v>
+        <v>0.1248443181771308</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1022706301366961</v>
+        <v>0.1047644419895304</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1475066485209595</v>
+        <v>0.149862056430982</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>243294</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>234877</v>
+        <v>232973</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251768</v>
+        <v>250690</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8987362574622551</v>
+        <v>0.8987362574622549</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8676410322805855</v>
+        <v>0.8606107965610228</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9300405137091089</v>
+        <v>0.9260552403147976</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>384</v>
@@ -8512,19 +8512,19 @@
         <v>224439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>215368</v>
+        <v>215065</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>232637</v>
+        <v>232710</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8509531440570343</v>
+        <v>0.850953144057034</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8165609824769086</v>
+        <v>0.8154104849863408</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8820368017018644</v>
+        <v>0.8823133480642713</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>714</v>
@@ -8533,19 +8533,19 @@
         <v>467733</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>455621</v>
+        <v>454362</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>479798</v>
+        <v>478465</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8751556818228693</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8524933514790406</v>
+        <v>0.850137943569018</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.897729369863304</v>
+        <v>0.8952355580104696</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>52462</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38009</v>
+        <v>38993</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71435</v>
+        <v>71274</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07289517664658816</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05281299391067178</v>
+        <v>0.05418016688029616</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09925838563082122</v>
+        <v>0.09903497243241992</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>147</v>
@@ -8658,19 +8658,19 @@
         <v>116236</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98883</v>
+        <v>98427</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136961</v>
+        <v>136084</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1505542203198802</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.128077472705673</v>
+        <v>0.1274871614679899</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1773970051299517</v>
+        <v>0.1762619849696765</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>193</v>
@@ -8679,19 +8679,19 @@
         <v>168698</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>144088</v>
+        <v>145195</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>193986</v>
+        <v>193553</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1130878624014399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09658999733089713</v>
+        <v>0.09733212772945578</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1300400639414154</v>
+        <v>0.1297492874597243</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>667225</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>648252</v>
+        <v>648413</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>681678</v>
+        <v>680694</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9271048233534119</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9007416143691793</v>
+        <v>0.9009650275675801</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9471870060893282</v>
+        <v>0.9458198331197039</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>813</v>
@@ -8729,19 +8729,19 @@
         <v>655821</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>635096</v>
+        <v>635973</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>673174</v>
+        <v>673630</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8494457796801197</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8226029948700483</v>
+        <v>0.8237380150303234</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8719225272943271</v>
+        <v>0.8725128385320101</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1366</v>
@@ -8750,19 +8750,19 @@
         <v>1323046</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1297758</v>
+        <v>1298191</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1347656</v>
+        <v>1346549</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.88691213759856</v>
+        <v>0.8869121375985601</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8699599360585847</v>
+        <v>0.8702507125402758</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9034100026691029</v>
+        <v>0.9026678722705441</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>40812</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29914</v>
+        <v>29648</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54873</v>
+        <v>55940</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05113879697092606</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03748248924623779</v>
+        <v>0.0371500164487206</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06875647618419505</v>
+        <v>0.07009337031336607</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>135</v>
@@ -8875,19 +8875,19 @@
         <v>97412</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>83068</v>
+        <v>82563</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113718</v>
+        <v>115038</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.117175359809081</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09992109638009122</v>
+        <v>0.09931473611731</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1367897712688837</v>
+        <v>0.1383783164127098</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>175</v>
@@ -8896,19 +8896,19 @@
         <v>138224</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>118948</v>
+        <v>119860</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>160154</v>
+        <v>160309</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08483105104516202</v>
+        <v>0.084831051045162</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07300106516522682</v>
+        <v>0.07356048356482046</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09828969033802168</v>
+        <v>0.09838497399424864</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>757260</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>743199</v>
+        <v>742132</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>768158</v>
+        <v>768424</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9488612030290738</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9312435238158051</v>
+        <v>0.929906629686634</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9625175107537621</v>
+        <v>0.9628499835512794</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>927</v>
@@ -8946,19 +8946,19 @@
         <v>733919</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>717613</v>
+        <v>716293</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>748263</v>
+        <v>748768</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8828246401909192</v>
+        <v>0.882824640190919</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8632102287311162</v>
+        <v>0.8616216835872901</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9000789036199087</v>
+        <v>0.9006852638826899</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1649</v>
@@ -8967,19 +8967,19 @@
         <v>1491179</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1469249</v>
+        <v>1469094</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1510455</v>
+        <v>1509543</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.915168948954838</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9017103096619785</v>
+        <v>0.9016150260057516</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9269989348347737</v>
+        <v>0.92643951643518</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>215047</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>186348</v>
+        <v>186677</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>245351</v>
+        <v>246530</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06087217903359984</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05274862338834924</v>
+        <v>0.05284156113167961</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06945010460675888</v>
+        <v>0.06978388707708502</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>692</v>
@@ -9092,19 +9092,19 @@
         <v>456631</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>422924</v>
+        <v>421601</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>489714</v>
+        <v>493596</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1221933134361761</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1131735126699529</v>
+        <v>0.1128193419395744</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1310463898084182</v>
+        <v>0.132085015254281</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>915</v>
@@ -9113,19 +9113,19 @@
         <v>671678</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>627111</v>
+        <v>624164</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>718365</v>
+        <v>715717</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0923939422401306</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08626347430456352</v>
+        <v>0.08585809493221654</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09881609770852656</v>
+        <v>0.09845189202698827</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3317715</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3287411</v>
+        <v>3286232</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3346414</v>
+        <v>3346085</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9391278209664004</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9305498953932411</v>
+        <v>0.930216112922915</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9472513766116507</v>
+        <v>0.9471584388683201</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4675</v>
@@ -9163,19 +9163,19 @@
         <v>3280323</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3247240</v>
+        <v>3243358</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3314030</v>
+        <v>3315353</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8778066865638241</v>
+        <v>0.8778066865638238</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8689536101915818</v>
+        <v>0.8679149847457189</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.886826487330047</v>
+        <v>0.8871806580604257</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7828</v>
@@ -9184,19 +9184,19 @@
         <v>6598038</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6551351</v>
+        <v>6553999</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6642605</v>
+        <v>6645552</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9076060577598695</v>
+        <v>0.9076060577598692</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9011839022914735</v>
+        <v>0.9015481079730119</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9137365256954366</v>
+        <v>0.9141419050677836</v>
       </c>
     </row>
     <row r="30">
